--- a/doc/外部設計書/04_画面遷移図_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_画面遷移図_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0244A0-1A84-44D5-960A-AF1384FA7701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0EC868-2E86-4A1E-A2BD-F4C173FF1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4785" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="555" windowWidth="15375" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -949,16 +949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>264318</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>859630</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>102391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>97631</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -973,8 +973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1288256" y="5329237"/>
-          <a:ext cx="952500" cy="890588"/>
+          <a:off x="859630" y="5364954"/>
+          <a:ext cx="1414464" cy="719140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,6 +1003,22 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>カレンダーの日付をクリック時</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポップアップ表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2168,15 +2184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>23811</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>64293</xdr:rowOff>
+      <xdr:rowOff>64294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>976312</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>121443</xdr:rowOff>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2191,8 +2207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3286125" y="4826793"/>
-          <a:ext cx="952500" cy="890588"/>
+          <a:off x="3286124" y="4826794"/>
+          <a:ext cx="1547813" cy="828676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,6 +2237,22 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>タスクリストの＋ボタンをクリック時</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポップアップ表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2229,15 +2261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1319212</xdr:colOff>
+      <xdr:colOff>1319211</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>130970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2252,8 +2284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="3538537"/>
-          <a:ext cx="952500" cy="890588"/>
+          <a:off x="4581524" y="3538537"/>
+          <a:ext cx="1181101" cy="1021558"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2282,6 +2314,22 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>マイページアイコンの画像をクリック時</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューで表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3235,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/外部設計書/04_画面遷移図_持ちつ持たれつ.xlsx
+++ b/doc/外部設計書/04_画面遷移図_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0EC868-2E86-4A1E-A2BD-F4C173FF1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D4C22-AFB1-467A-B420-DD1B9FF9CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="555" windowWidth="15375" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -2577,6 +2577,67 @@
         <a:xfrm>
           <a:off x="6838950" y="7024688"/>
           <a:ext cx="914400" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページ遷移させる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>859631</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B5F7FE-5288-4D7D-B266-146D57D412EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3002756" y="1271588"/>
+          <a:ext cx="854869" cy="704849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3283,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
